--- a/src/kraken_files/excel_files/SOLUSD.xlsx
+++ b/src/kraken_files/excel_files/SOLUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,70 +475,139 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>19.12615245</v>
+        <v>3.328</v>
       </c>
       <c r="C2" t="n">
-        <v>7.8125</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>126.882979421195</v>
+        <v>159.315456</v>
       </c>
       <c r="E2" t="n">
-        <v>135.7413591208175</v>
+        <v>161.522128</v>
       </c>
       <c r="F2" t="n">
-        <v>137.0987727120257</v>
+        <v>163.13734928</v>
       </c>
       <c r="G2" t="n">
-        <v>7.451411189718549</v>
+        <v>2.342745727368856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>31.13679782</v>
+        <v>6.49168</v>
       </c>
       <c r="C3" t="n">
-        <v>19.53125</v>
+        <v>1.25</v>
       </c>
       <c r="D3" t="n">
-        <v>108.039477900202</v>
+        <v>154.10171136</v>
       </c>
       <c r="E3" t="n">
-        <v>121.8904185105097</v>
+        <v>157.81191968</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1093226956148</v>
+        <v>159.3900388768</v>
       </c>
       <c r="G3" t="n">
-        <v>12.24102648397531</v>
+        <v>3.317853207180399</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.4270208</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>145.9682697216</v>
+      </c>
+      <c r="E4" t="n">
+        <v>151.8900947008</v>
+      </c>
+      <c r="F4" t="n">
+        <v>153.408995647808</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.850253985946318</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.12615245</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.8125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.2801007624</v>
+      </c>
+      <c r="E5" t="n">
+        <v>142.5850977316</v>
+      </c>
+      <c r="F5" t="n">
+        <v>144.010948708916</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.451411189718549</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.13679782</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.53125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>113.48655719264</v>
+      </c>
+      <c r="E6" t="n">
+        <v>128.03582746212</v>
+      </c>
+      <c r="F6" t="n">
+        <v>129.3161857367412</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.24102648397531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B7" t="n">
         <v>49.8734046</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C7" t="n">
         <v>48.828125</v>
       </c>
-      <c r="D4" t="n">
-        <v>78.64361552305999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100.2670170167849</v>
-      </c>
-      <c r="F4" t="n">
-        <v>101.2696871869527</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="D7" t="n">
+        <v>82.60862921920001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>105.32222834066</v>
+      </c>
+      <c r="F7" t="n">
+        <v>106.3754506240666</v>
+      </c>
+      <c r="G7" t="n">
         <v>22.34239316067306</v>
       </c>
     </row>
@@ -553,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,41 +645,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OGKIID-6AAFL-XD7ZQG</t>
+          <t>OBAUCM-XTM32-BJH7HN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.42</v>
+        <v>166.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ONDFNP-SYT6Q-FTZRPK</t>
+          <t>O2TQAT-MRLEG-MZOHOS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ODW6HZ-YMCF3-67FYSP</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>151.73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>OZUI2D-FSQVW-ABXUAJ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>146.04</v>
+        <v>165.36</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,13 +688,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>OFDRRY-KLBCL-3V66BF</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/kraken_files/excel_files/SOLUSD.xlsx
+++ b/src/kraken_files/excel_files/SOLUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,140 +475,117 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3.328</v>
+        <v>6.49168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="D2" t="n">
-        <v>159.315456</v>
+        <v>200.023647312</v>
       </c>
       <c r="E2" t="n">
-        <v>161.522128</v>
+        <v>204.839488706</v>
       </c>
       <c r="F2" t="n">
-        <v>163.13734928</v>
+        <v>205.86368614953</v>
       </c>
       <c r="G2" t="n">
-        <v>2.342745727368856</v>
+        <v>2.836847501743489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49168</v>
+        <v>11.4270208</v>
       </c>
       <c r="C3" t="n">
-        <v>1.25</v>
+        <v>3.125</v>
       </c>
       <c r="D3" t="n">
-        <v>154.10171136</v>
+        <v>189.46645980672</v>
       </c>
       <c r="E3" t="n">
-        <v>157.81191968</v>
+        <v>197.15297425636</v>
       </c>
       <c r="F3" t="n">
-        <v>159.3900388768</v>
+        <v>198.1387391276418</v>
       </c>
       <c r="G3" t="n">
-        <v>3.317853207180399</v>
+        <v>4.376872164980849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4270208</v>
+        <v>19.12615245</v>
       </c>
       <c r="C4" t="n">
-        <v>3.125</v>
+        <v>7.8125</v>
       </c>
       <c r="D4" t="n">
-        <v>145.9682697216</v>
+        <v>172.997247294205</v>
       </c>
       <c r="E4" t="n">
-        <v>151.8900947008</v>
+        <v>185.0751107752825</v>
       </c>
       <c r="F4" t="n">
-        <v>153.408995647808</v>
+        <v>186.0004863291589</v>
       </c>
       <c r="G4" t="n">
-        <v>4.850253985946318</v>
+        <v>6.990970449368882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>19.12615245</v>
+        <v>31.13679782</v>
       </c>
       <c r="C5" t="n">
-        <v>7.8125</v>
+        <v>19.53125</v>
       </c>
       <c r="D5" t="n">
-        <v>133.2801007624</v>
+        <v>147.305275783238</v>
       </c>
       <c r="E5" t="n">
-        <v>142.5850977316</v>
+        <v>166.1901932792603</v>
       </c>
       <c r="F5" t="n">
-        <v>144.010948708916</v>
+        <v>167.0211442456566</v>
       </c>
       <c r="G5" t="n">
-        <v>7.451411189718549</v>
+        <v>11.80441467543787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>31.13679782</v>
+        <v>49.8734046</v>
       </c>
       <c r="C6" t="n">
-        <v>19.53125</v>
+        <v>48.828125</v>
       </c>
       <c r="D6" t="n">
-        <v>113.48655719264</v>
+        <v>107.22580022014</v>
       </c>
       <c r="E6" t="n">
-        <v>128.03582746212</v>
+        <v>136.7079967497001</v>
       </c>
       <c r="F6" t="n">
-        <v>129.3161857367412</v>
+        <v>137.3915367334486</v>
       </c>
       <c r="G6" t="n">
-        <v>12.24102648397531</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>49.8734046</v>
-      </c>
-      <c r="C7" t="n">
-        <v>48.828125</v>
-      </c>
-      <c r="D7" t="n">
-        <v>82.60862921920001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>105.32222834066</v>
-      </c>
-      <c r="F7" t="n">
-        <v>106.3754506240666</v>
-      </c>
-      <c r="G7" t="n">
-        <v>22.34239316067306</v>
+        <v>21.95603690774107</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,21 +622,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OBAUCM-XTM32-BJH7HN</t>
+          <t>OWADU5-SIYY7-NWAVUG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>O2TQAT-MRLEG-MZOHOS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>165.36</v>
+        <v>210.7</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,6 +655,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OEI2LT-TU372-C4TDQ7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OAHKU7-WAY6O-XIAGKN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/kraken_files/excel_files/SOLUSD.xlsx
+++ b/src/kraken_files/excel_files/SOLUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,117 +475,94 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.49168</v>
+        <v>11.4270208</v>
       </c>
       <c r="C2" t="n">
-        <v>1.25</v>
+        <v>3.125</v>
       </c>
       <c r="D2" t="n">
-        <v>200.023647312</v>
+        <v>187.11927585792</v>
       </c>
       <c r="E2" t="n">
-        <v>204.839488706</v>
+        <v>194.71056678696</v>
       </c>
       <c r="F2" t="n">
-        <v>205.86368614953</v>
+        <v>195.6841196208948</v>
       </c>
       <c r="G2" t="n">
-        <v>2.836847501743489</v>
+        <v>4.376872164980861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4270208</v>
+        <v>19.12615245</v>
       </c>
       <c r="C3" t="n">
-        <v>3.125</v>
+        <v>7.8125</v>
       </c>
       <c r="D3" t="n">
-        <v>189.46645980672</v>
+        <v>170.85409033413</v>
       </c>
       <c r="E3" t="n">
-        <v>197.15297425636</v>
+        <v>182.782328560545</v>
       </c>
       <c r="F3" t="n">
-        <v>198.1387391276418</v>
+        <v>183.6962402033477</v>
       </c>
       <c r="G3" t="n">
-        <v>4.376872164980849</v>
+        <v>6.990970449368894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>19.12615245</v>
+        <v>31.13679782</v>
       </c>
       <c r="C4" t="n">
-        <v>7.8125</v>
+        <v>19.53125</v>
       </c>
       <c r="D4" t="n">
-        <v>172.997247294205</v>
+        <v>145.480400925468</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0751107752825</v>
+        <v>164.1313647430065</v>
       </c>
       <c r="F4" t="n">
-        <v>186.0004863291589</v>
+        <v>164.9520215667215</v>
       </c>
       <c r="G4" t="n">
-        <v>6.990970449368882</v>
+        <v>11.80441467543788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>31.13679782</v>
+        <v>49.8734046</v>
       </c>
       <c r="C5" t="n">
-        <v>19.53125</v>
+        <v>48.828125</v>
       </c>
       <c r="D5" t="n">
-        <v>147.305275783238</v>
+        <v>105.89744544204</v>
       </c>
       <c r="E5" t="n">
-        <v>166.1901932792603</v>
+        <v>135.0144050925232</v>
       </c>
       <c r="F5" t="n">
-        <v>167.0211442456566</v>
+        <v>135.6894771179859</v>
       </c>
       <c r="G5" t="n">
-        <v>11.80441467543787</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.8734046</v>
-      </c>
-      <c r="C6" t="n">
-        <v>48.828125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>107.22580022014</v>
-      </c>
-      <c r="E6" t="n">
-        <v>136.7079967497001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>137.3915367334486</v>
-      </c>
-      <c r="G6" t="n">
-        <v>21.95603690774107</v>
+        <v>21.95603690774108</v>
       </c>
     </row>
   </sheetData>
@@ -622,11 +599,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OWADU5-SIYY7-NWAVUG</t>
+          <t>OPTNE3-QMJLW-ACKLO7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.7</v>
+        <v>203.31</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,14 +635,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OEI2LT-TU372-C4TDQ7</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OAHKU7-WAY6O-XIAGKN</t>
+          <t>OVYCWJ-67OFO-KHQUHB</t>
         </is>
       </c>
     </row>

--- a/src/kraken_files/excel_files/SOLUSD.xlsx
+++ b/src/kraken_files/excel_files/SOLUSD.xlsx
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,20 +622,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OB3KGD-OZ5NX-TUOCJX</t>
+          <t>ONSUAT-2MVBC-63EEEP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246.14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ONSUAT-2MVBC-63EEEP</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
         <v>243.61</v>
       </c>
     </row>
@@ -650,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,6 +662,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OZPQ66-BPVMB-E7MTRV</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
